--- a/Dataset/15/낮과밤_학습(15)/낮과밤1.xlsx
+++ b/Dataset/15/낮과밤_학습(15)/낮과밤1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\낮과밤_학습(15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF67C5B-341B-4C0A-9459-A40DF37B14DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847FD486-7081-4666-9C8F-20981F527EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1886" yWindow="1886" windowWidth="16328" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4854,8 +4854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4896,7 +4896,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4911,11 +4910,10 @@
         <v>3.8277477025985718E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D66" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4930,11 +4928,10 @@
         <v>0.8515850305557251</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4949,11 +4946,10 @@
         <v>1.791887171566486E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4968,11 +4964,10 @@
         <v>1.4609593898057939E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4987,11 +4982,10 @@
         <v>2.49512605369091E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5006,11 +5000,10 @@
         <v>1.425022352486849E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5025,11 +5018,10 @@
         <v>1.4845652505755419E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5044,11 +5036,10 @@
         <v>1.48823456838727E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5063,11 +5054,10 @@
         <v>1.6699362546205521E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5082,11 +5072,10 @@
         <v>1.443115249276161E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5101,11 +5090,10 @@
         <v>1.8660252913832661E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5120,11 +5108,10 @@
         <v>1.47891454398632E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5139,11 +5126,10 @@
         <v>0.33109009265899658</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5158,11 +5144,10 @@
         <v>4.2889263480901718E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5177,11 +5162,10 @@
         <v>0.16623422503471369</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5196,11 +5180,10 @@
         <v>1.4953889884054661E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5215,11 +5198,10 @@
         <v>1.4256910420954229E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5234,11 +5216,10 @@
         <v>1.8150383606553081E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5253,11 +5234,10 @@
         <v>2.1724186837673191E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5272,11 +5252,10 @@
         <v>1.447137165814638E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5291,11 +5270,10 @@
         <v>1.6858858987689022E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5310,11 +5288,10 @@
         <v>1.4928885735571379E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5329,11 +5306,10 @@
         <v>1.7230557277798649E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5348,11 +5324,10 @@
         <v>0.98359483480453491</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5367,11 +5342,10 @@
         <v>0.98704069852828979</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5386,11 +5360,10 @@
         <v>1.5269665978848931E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5405,11 +5378,10 @@
         <v>1.4324711635708811E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5424,11 +5396,10 @@
         <v>1.4184656552970409E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5443,11 +5414,10 @@
         <v>1.423200219869614E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5462,11 +5432,10 @@
         <v>1.4480452053248881E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5481,11 +5450,10 @@
         <v>0.9077678918838501</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5500,11 +5468,10 @@
         <v>1.580297946929932E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5519,11 +5486,10 @@
         <v>1.5019029378890989E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5538,11 +5504,10 @@
         <v>1.461209170520306E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5557,11 +5522,10 @@
         <v>1.4651637524366381E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5576,11 +5540,10 @@
         <v>1.8123019486665729E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5595,11 +5558,10 @@
         <v>1.473113335669041E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5614,11 +5576,10 @@
         <v>1.489568967372179E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5633,11 +5594,10 @@
         <v>1.4452021569013601E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5652,11 +5612,10 @@
         <v>0.99057477712631226</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5671,11 +5630,10 @@
         <v>9.2926733195781708E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5690,11 +5648,10 @@
         <v>1.6216224059462551E-2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5709,11 +5666,10 @@
         <v>0.99059110879898071</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5728,11 +5684,10 @@
         <v>1.7587723210453991E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5747,11 +5702,10 @@
         <v>1.5707917511463169E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5766,11 +5720,10 @@
         <v>1.5059552155435091E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5785,11 +5738,10 @@
         <v>1.4243694022297859E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5804,11 +5756,10 @@
         <v>0.99062222242355347</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5823,11 +5774,10 @@
         <v>1.453106570988894E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5842,11 +5792,10 @@
         <v>1.4217933639884E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5861,11 +5810,10 @@
         <v>1.4542281627655029E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5880,11 +5828,10 @@
         <v>1.440903265029192E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5899,11 +5846,10 @@
         <v>2.1704288199543949E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5918,11 +5864,10 @@
         <v>1.437882147729397E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5937,11 +5882,10 @@
         <v>0.15065218508243561</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5956,11 +5900,10 @@
         <v>1.5782523900270459E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5975,11 +5918,10 @@
         <v>3.0260540544986721E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5994,11 +5936,10 @@
         <v>1.5445356257259849E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6013,11 +5954,10 @@
         <v>3.6220923066139221E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6032,11 +5972,10 @@
         <v>1.6328169032931331E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6051,11 +5990,10 @@
         <v>1.418627053499222E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6070,11 +6008,10 @@
         <v>2.00812928378582E-2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6089,11 +6026,10 @@
         <v>1.5700738877058029E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6108,11 +6044,10 @@
         <v>1.4599732123315331E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="2">IF(ISBLANK(F66),D66,F66)</f>
         <v>0</v>
       </c>
     </row>
@@ -6127,11 +6062,10 @@
         <v>0.99059498310089111</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">IF(C67&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6146,11 +6080,10 @@
         <v>1.485686469823122E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6165,11 +6098,10 @@
         <v>0.73477864265441895</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F69">
@@ -6187,11 +6119,10 @@
         <v>0.99037349224090576</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6206,11 +6137,10 @@
         <v>2.4844218045473099E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6225,11 +6155,10 @@
         <v>2.467405796051025E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6244,11 +6173,10 @@
         <v>0.99059873819351196</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6263,11 +6191,10 @@
         <v>1.439581997692585E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6282,11 +6209,10 @@
         <v>3.5564426332712173E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6301,11 +6227,10 @@
         <v>0.99059849977493286</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6320,11 +6245,10 @@
         <v>1.9843572750687599E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6339,11 +6263,10 @@
         <v>2.2278530523180962E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6358,11 +6281,10 @@
         <v>0.99058377742767334</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6377,11 +6299,10 @@
         <v>1.421537529677153E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6396,11 +6317,10 @@
         <v>0.99037081003189087</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6415,11 +6335,10 @@
         <v>1.4316001906991E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6434,11 +6353,10 @@
         <v>1.426011323928833E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6453,11 +6371,10 @@
         <v>0.33109503984451288</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6472,11 +6389,10 @@
         <v>1.448654383420944E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6491,11 +6407,10 @@
         <v>1.4337252825498579E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6510,11 +6425,10 @@
         <v>1.5248464420437809E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6529,11 +6443,10 @@
         <v>1.6504885628819469E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6548,11 +6461,10 @@
         <v>0.99051100015640259</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6567,11 +6479,10 @@
         <v>0.99060893058776855</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6586,11 +6497,10 @@
         <v>1.4488157816231251E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6605,11 +6515,10 @@
         <v>0.99033772945404053</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6624,11 +6533,10 @@
         <v>1.4466638676822191E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6643,11 +6551,10 @@
         <v>1.5348555520176889E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6662,11 +6569,10 @@
         <v>1.7619231715798381E-2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6681,11 +6587,10 @@
         <v>1.502902805805206E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6700,11 +6605,10 @@
         <v>1.501998119056225E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6719,11 +6623,10 @@
         <v>2.3111183196306229E-2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6738,11 +6641,10 @@
         <v>2.8427805751562119E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6757,11 +6659,10 @@
         <v>0.98693370819091797</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6776,11 +6677,10 @@
         <v>1.6398202627897259E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6795,11 +6695,10 @@
         <v>1.417174655944109E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6814,11 +6713,10 @@
         <v>0.99062258005142212</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6833,11 +6731,10 @@
         <v>5.8077223598957062E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6852,11 +6749,10 @@
         <v>1.546797528862953E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6871,11 +6767,10 @@
         <v>1.5907622873783112E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6890,11 +6785,10 @@
         <v>0.98935788869857788</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6909,11 +6803,10 @@
         <v>1.675421372056007E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6928,11 +6821,10 @@
         <v>1.9527362659573552E-2</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6947,11 +6839,10 @@
         <v>1.4221015386283399E-2</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6966,11 +6857,10 @@
         <v>2.4134796112775799E-2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6985,11 +6875,10 @@
         <v>1.4902513474226E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7004,11 +6893,10 @@
         <v>1.463403180241585E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7023,11 +6911,10 @@
         <v>1.456574536859989E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7042,11 +6929,10 @@
         <v>1.503873616456985E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7061,11 +6947,10 @@
         <v>2.4039732292294499E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7080,11 +6965,10 @@
         <v>1.547150406986475E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7099,11 +6983,10 @@
         <v>0.99052387475967407</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7118,11 +7001,10 @@
         <v>1.432861760258675E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7137,11 +7019,10 @@
         <v>1.5484080649912361E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7156,11 +7037,10 @@
         <v>1.531846821308136E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7175,11 +7055,10 @@
         <v>1.516851969063282E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7194,11 +7073,10 @@
         <v>3.4700140357017517E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7213,11 +7091,10 @@
         <v>0.84319043159484863</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7232,11 +7109,10 @@
         <v>0.132471889257431</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7251,11 +7127,10 @@
         <v>0.65546661615371704</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7270,11 +7145,10 @@
         <v>0.99007248878479004</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7289,11 +7163,10 @@
         <v>1.4194789342582229E-2</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7308,11 +7181,10 @@
         <v>0.99059498310089111</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7327,11 +7199,10 @@
         <v>0.33109930157661438</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="4">IF(ISBLANK(F130),D130,F130)</f>
         <v>0</v>
       </c>
     </row>
@@ -7346,11 +7217,10 @@
         <v>1.540300901979208E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">IF(C131&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7365,11 +7235,10 @@
         <v>1.448139734566212E-2</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7384,11 +7253,10 @@
         <v>1.488845609128475E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7403,11 +7271,10 @@
         <v>2.564863488078117E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7422,11 +7289,10 @@
         <v>1.425882708281279E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7441,11 +7307,10 @@
         <v>1.416424848139286E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7460,11 +7325,10 @@
         <v>1.457735057920218E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7479,11 +7343,10 @@
         <v>0.9905971884727478</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7498,11 +7361,10 @@
         <v>2.0743496716022491E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7517,11 +7379,10 @@
         <v>1.4407354407012459E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7536,11 +7397,10 @@
         <v>1.4201870188117031E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7555,11 +7415,10 @@
         <v>1.4286653138697151E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7574,11 +7433,10 @@
         <v>1.4745659194886679E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7593,11 +7451,10 @@
         <v>1.441231742501259E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7612,11 +7469,10 @@
         <v>1.46688437089324E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7631,11 +7487,10 @@
         <v>1.417080033570528E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7650,11 +7505,10 @@
         <v>0.9876740574836731</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F147">
@@ -7672,11 +7526,10 @@
         <v>1.5866456553339962E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7691,11 +7544,10 @@
         <v>1.438541803508997E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7710,11 +7562,10 @@
         <v>1.4597997069358829E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7729,11 +7580,10 @@
         <v>1.564671099185944E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7748,11 +7598,10 @@
         <v>5.8723501861095428E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7767,11 +7616,10 @@
         <v>1.9258597865700718E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7786,11 +7634,10 @@
         <v>1.4222772791981701E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7805,11 +7652,10 @@
         <v>3.4250207245349877E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7824,11 +7670,10 @@
         <v>0.91822952032089233</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F156">
@@ -7846,11 +7691,10 @@
         <v>1.4165659435093399E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7865,11 +7709,10 @@
         <v>1.544218137860298E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7884,11 +7727,10 @@
         <v>1.437938306480646E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7903,11 +7745,10 @@
         <v>3.3705268055200577E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7922,11 +7763,10 @@
         <v>0.98467504978179932</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7941,11 +7781,10 @@
         <v>1.4552316628396509E-2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7960,11 +7799,10 @@
         <v>2.117034234106541E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7979,11 +7817,10 @@
         <v>8.5566885769367218E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7998,11 +7835,10 @@
         <v>1.432205270975828E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8017,11 +7853,10 @@
         <v>9.6401728689670563E-2</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8036,11 +7871,10 @@
         <v>3.6343526095151901E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8055,11 +7889,10 @@
         <v>1.4805605635046961E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8074,11 +7907,10 @@
         <v>1.466844324022532E-2</v>
       </c>
       <c r="D169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8093,11 +7925,10 @@
         <v>0.99020981788635254</v>
       </c>
       <c r="D170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F170">
@@ -8115,11 +7946,10 @@
         <v>1.4631686732172969E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8134,11 +7964,10 @@
         <v>4.6916782855987549E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8153,11 +7982,10 @@
         <v>0.99048960208892822</v>
       </c>
       <c r="D173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F173">
@@ -8175,11 +8003,10 @@
         <v>2.1717933937907219E-2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8194,11 +8021,10 @@
         <v>0.99024325609207153</v>
       </c>
       <c r="D175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8213,11 +8039,10 @@
         <v>1.445024274289608E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8232,11 +8057,10 @@
         <v>0.98538732528686523</v>
       </c>
       <c r="D177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8251,11 +8075,10 @@
         <v>0.99040716886520386</v>
       </c>
       <c r="D178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8270,11 +8093,10 @@
         <v>0.98909902572631836</v>
       </c>
       <c r="D179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8289,11 +8111,10 @@
         <v>0.98954588174819946</v>
       </c>
       <c r="D180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8308,11 +8129,10 @@
         <v>1.479646377265453E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8327,11 +8147,10 @@
         <v>1.670066267251968E-2</v>
       </c>
       <c r="D182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8346,11 +8165,10 @@
         <v>0.99066585302352905</v>
       </c>
       <c r="D183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E183">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8365,11 +8183,10 @@
         <v>1.4198018237948419E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8384,11 +8201,10 @@
         <v>0.73803776502609253</v>
       </c>
       <c r="D185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E185">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F185">
@@ -8406,11 +8222,10 @@
         <v>1.471506338566542E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8425,11 +8240,10 @@
         <v>1.5359649434685711E-2</v>
       </c>
       <c r="D187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E187">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8444,11 +8258,10 @@
         <v>1.4634657651185989E-2</v>
       </c>
       <c r="D188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8463,11 +8276,10 @@
         <v>1.4190865680575371E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8482,11 +8294,10 @@
         <v>0.35007667541503912</v>
       </c>
       <c r="D190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8501,11 +8312,10 @@
         <v>0.92179220914840698</v>
       </c>
       <c r="D191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E191">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8520,11 +8330,10 @@
         <v>0.60514748096466064</v>
       </c>
       <c r="D192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E192">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8539,11 +8348,10 @@
         <v>1.480886898934841E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8558,11 +8366,10 @@
         <v>0.33112102746963501</v>
       </c>
       <c r="D194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="6">IF(ISBLANK(F194),D194,F194)</f>
         <v>0</v>
       </c>
     </row>
@@ -8577,11 +8384,10 @@
         <v>1.5186731703579429E-2</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="7">IF(C195&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8596,11 +8402,10 @@
         <v>0.98980903625488281</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E196">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8615,11 +8420,10 @@
         <v>1.503274030983448E-2</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8634,11 +8438,10 @@
         <v>1.7611466348171231E-2</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8653,11 +8456,10 @@
         <v>0.45866245031356812</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8672,11 +8474,10 @@
         <v>0.98805129528045654</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8691,11 +8492,10 @@
         <v>1.4307962730526921E-2</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8710,11 +8510,10 @@
         <v>3.4996852278709412E-2</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8729,11 +8528,10 @@
         <v>1.422682590782642E-2</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E203">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8748,11 +8546,10 @@
         <v>2.0655643194913861E-2</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8767,11 +8564,10 @@
         <v>1.52809415012598E-2</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8786,11 +8582,10 @@
         <v>1.4215327799320219E-2</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E206">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8805,11 +8600,10 @@
         <v>1.825995184481144E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8824,11 +8618,10 @@
         <v>1.417956966906786E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8843,11 +8636,10 @@
         <v>0.17563782632350919</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8862,11 +8654,10 @@
         <v>0.81400018930435181</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E210">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F210">
@@ -8884,11 +8675,10 @@
         <v>1.5379580669105049E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8903,11 +8693,10 @@
         <v>1.7596045508980751E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8922,11 +8711,10 @@
         <v>0.99029642343521118</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E213">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8941,11 +8729,10 @@
         <v>1.4165792614221569E-2</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8960,11 +8747,10 @@
         <v>2.8566876426339149E-2</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8979,11 +8765,10 @@
         <v>1.5834813937544819E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8998,11 +8783,10 @@
         <v>0.63596552610397339</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E217">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9017,11 +8801,10 @@
         <v>1.474037487059832E-2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9036,11 +8819,10 @@
         <v>1.5487410128116609E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9055,11 +8837,10 @@
         <v>2.6010844856500629E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9074,11 +8855,10 @@
         <v>2.937470376491547E-2</v>
       </c>
       <c r="D221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9093,11 +8873,10 @@
         <v>4.7515600919723511E-2</v>
       </c>
       <c r="D222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E222">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9112,11 +8891,10 @@
         <v>1.9504401832818982E-2</v>
       </c>
       <c r="D223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E223">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9131,11 +8909,10 @@
         <v>1.4187890104949471E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9150,11 +8927,10 @@
         <v>0.98632669448852539</v>
       </c>
       <c r="D225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E225">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9169,11 +8945,10 @@
         <v>1.8111050128936771E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9188,11 +8963,10 @@
         <v>0.99053859710693359</v>
       </c>
       <c r="D227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E227">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9207,11 +8981,10 @@
         <v>0.99059462547302246</v>
       </c>
       <c r="D228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E228">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9226,11 +8999,10 @@
         <v>0.99055886268615723</v>
       </c>
       <c r="D229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E229">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9245,11 +9017,10 @@
         <v>1.439385861158371E-2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9264,11 +9035,10 @@
         <v>0.21565720438957209</v>
       </c>
       <c r="D231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9283,11 +9053,10 @@
         <v>4.8808928579092033E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9302,11 +9071,10 @@
         <v>1.4373930171132089E-2</v>
       </c>
       <c r="D233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9321,11 +9089,10 @@
         <v>0.50564390420913696</v>
       </c>
       <c r="D234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E234">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F234">
@@ -9343,11 +9110,10 @@
         <v>0.99047571420669556</v>
       </c>
       <c r="D235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E235">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9362,11 +9128,10 @@
         <v>1.7498921602964401E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9381,11 +9146,10 @@
         <v>0.1153141707181931</v>
       </c>
       <c r="D237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9400,11 +9164,10 @@
         <v>5.5072050541639328E-2</v>
       </c>
       <c r="D238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9419,11 +9182,10 @@
         <v>0.99004608392715454</v>
       </c>
       <c r="D239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E239">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9438,11 +9200,10 @@
         <v>1.9298959523439411E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9457,11 +9218,10 @@
         <v>3.3004689961671829E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9476,11 +9236,10 @@
         <v>1.9765384495258331E-2</v>
       </c>
       <c r="D242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9495,11 +9254,10 @@
         <v>1.4558054506778721E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9514,11 +9272,10 @@
         <v>1.4875516295433039E-2</v>
       </c>
       <c r="D244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9533,11 +9290,10 @@
         <v>1.536822039633989E-2</v>
       </c>
       <c r="D245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E245">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9552,11 +9308,10 @@
         <v>1.465621497482061E-2</v>
       </c>
       <c r="D246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9571,11 +9326,10 @@
         <v>0.87506312131881714</v>
       </c>
       <c r="D247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E247">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F247">
@@ -9593,11 +9347,10 @@
         <v>1.8911883234977719E-2</v>
       </c>
       <c r="D248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E248">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9612,11 +9365,10 @@
         <v>1.4580912888050079E-2</v>
       </c>
       <c r="D249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9631,11 +9383,10 @@
         <v>1.4494224451482299E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9650,11 +9401,10 @@
         <v>1.4273759908974171E-2</v>
       </c>
       <c r="D251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9669,11 +9419,10 @@
         <v>1.6271896660327911E-2</v>
       </c>
       <c r="D252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9688,11 +9437,10 @@
         <v>0.14936274290084839</v>
       </c>
       <c r="D253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9707,11 +9455,10 @@
         <v>1.456810720264912E-2</v>
       </c>
       <c r="D254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9726,11 +9473,10 @@
         <v>0.37307253479957581</v>
       </c>
       <c r="D255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9745,11 +9491,10 @@
         <v>1.511296723037958E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9764,11 +9509,10 @@
         <v>1.5298206359148031E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9783,11 +9527,10 @@
         <v>1.4599965885281559E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">IF(ISBLANK(F258),D258,F258)</f>
         <v>0</v>
       </c>
     </row>
@@ -9802,11 +9545,10 @@
         <v>0.9778207540512085</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="9">IF(C259&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E259">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9821,11 +9563,10 @@
         <v>1.4531871303915979E-2</v>
       </c>
       <c r="D260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9840,11 +9581,10 @@
         <v>1.426879595965147E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9859,11 +9599,10 @@
         <v>1.451550424098969E-2</v>
       </c>
       <c r="D262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9878,11 +9617,10 @@
         <v>1.524099055677652E-2</v>
       </c>
       <c r="D263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9897,11 +9635,10 @@
         <v>1.427971944212914E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9916,11 +9653,10 @@
         <v>3.3400744199752808E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9935,11 +9671,10 @@
         <v>1.788299344480038E-2</v>
       </c>
       <c r="D266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9954,11 +9689,10 @@
         <v>0.8812364935874939</v>
       </c>
       <c r="D267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F267">
@@ -9976,11 +9710,10 @@
         <v>1.417668350040913E-2</v>
       </c>
       <c r="D268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9995,11 +9728,10 @@
         <v>3.026312775909901E-2</v>
       </c>
       <c r="D269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10014,11 +9746,10 @@
         <v>1.417216565459967E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10033,11 +9764,10 @@
         <v>0.98924863338470459</v>
       </c>
       <c r="D271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E271">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F271">
@@ -10055,11 +9785,10 @@
         <v>1.466984301805496E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10074,11 +9803,10 @@
         <v>1.4399859122931961E-2</v>
       </c>
       <c r="D273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10093,11 +9821,10 @@
         <v>1.4232576824724671E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10112,11 +9839,10 @@
         <v>1.4305105432868E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10131,11 +9857,10 @@
         <v>1.473659463226795E-2</v>
       </c>
       <c r="D276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E276">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10150,11 +9875,10 @@
         <v>1.5270453877747061E-2</v>
       </c>
       <c r="D277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10169,11 +9893,10 @@
         <v>2.006164193153381E-2</v>
       </c>
       <c r="D278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10188,11 +9911,10 @@
         <v>5.0965249538421631E-2</v>
       </c>
       <c r="D279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10207,11 +9929,10 @@
         <v>1.713603176176548E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10226,11 +9947,10 @@
         <v>1.4540655538439751E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10245,11 +9965,10 @@
         <v>1.4550661668181419E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10264,11 +9983,10 @@
         <v>0.99047255516052246</v>
       </c>
       <c r="D283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F283">
@@ -10286,11 +10004,10 @@
         <v>1.417878270149231E-2</v>
       </c>
       <c r="D284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10305,11 +10022,10 @@
         <v>1.4706846326589579E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10324,11 +10040,10 @@
         <v>1.4706846326589579E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10343,11 +10058,10 @@
         <v>1.4706846326589579E-2</v>
       </c>
       <c r="D287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10362,11 +10076,10 @@
         <v>1.4442503452301031E-2</v>
       </c>
       <c r="D288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E288">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10381,11 +10094,10 @@
         <v>0.99062025547027588</v>
       </c>
       <c r="D289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E289">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F289">
@@ -10403,11 +10115,10 @@
         <v>1.443779468536377E-2</v>
       </c>
       <c r="D290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10422,11 +10133,10 @@
         <v>1.425413601100445E-2</v>
       </c>
       <c r="D291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10441,11 +10151,10 @@
         <v>1.443690527230501E-2</v>
       </c>
       <c r="D292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10460,11 +10169,10 @@
         <v>1.43706863746047E-2</v>
       </c>
       <c r="D293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10479,11 +10187,10 @@
         <v>1.4526962302625179E-2</v>
       </c>
       <c r="D294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10498,11 +10205,10 @@
         <v>1.4400515705347059E-2</v>
       </c>
       <c r="D295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10517,11 +10223,10 @@
         <v>1.963440515100956E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10536,11 +10241,10 @@
         <v>1.4435202814638609E-2</v>
       </c>
       <c r="D297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10555,11 +10259,10 @@
         <v>1.4676365070044989E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10574,11 +10277,10 @@
         <v>1.482272613793612E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10593,11 +10295,10 @@
         <v>1.427304185926914E-2</v>
       </c>
       <c r="D300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E300">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10612,11 +10313,10 @@
         <v>0.77677750587463379</v>
       </c>
       <c r="D301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E301">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10631,11 +10331,10 @@
         <v>1.8712742254137989E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10650,11 +10349,10 @@
         <v>1.4823346398770809E-2</v>
       </c>
       <c r="D303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10669,11 +10367,10 @@
         <v>1.486832182854414E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10688,11 +10385,10 @@
         <v>1.4799368567764761E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10707,11 +10403,10 @@
         <v>1.451966539025307E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10726,11 +10421,10 @@
         <v>1.5873530879616741E-2</v>
       </c>
       <c r="D307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10745,11 +10439,10 @@
         <v>0.97762668132781982</v>
       </c>
       <c r="D308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E308">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10764,11 +10457,10 @@
         <v>1.4434238895773889E-2</v>
       </c>
       <c r="D309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10783,11 +10475,10 @@
         <v>1.5145436860620981E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10802,11 +10493,10 @@
         <v>1.4945105649530889E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10821,11 +10511,10 @@
         <v>1.515128370374441E-2</v>
       </c>
       <c r="D312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10840,11 +10529,10 @@
         <v>1.7832512035965919E-2</v>
       </c>
       <c r="D313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10859,11 +10547,10 @@
         <v>1.468400005251169E-2</v>
       </c>
       <c r="D314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10878,11 +10565,10 @@
         <v>2.8222367167472839E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10897,11 +10583,10 @@
         <v>2.3517049849033359E-2</v>
       </c>
       <c r="D316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E316">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10916,11 +10601,10 @@
         <v>3.2422903925180442E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10935,11 +10619,10 @@
         <v>0.36190494894981379</v>
       </c>
       <c r="D318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E318">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10954,11 +10637,10 @@
         <v>0.96805620193481445</v>
       </c>
       <c r="D319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E319">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10973,11 +10655,10 @@
         <v>2.2706756368279461E-2</v>
       </c>
       <c r="D320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10992,11 +10673,10 @@
         <v>2.5793494656682011E-2</v>
       </c>
       <c r="D321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11011,11 +10691,10 @@
         <v>1.464798953384161E-2</v>
       </c>
       <c r="D322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="10">IF(ISBLANK(F322),D322,F322)</f>
         <v>0</v>
       </c>
     </row>
@@ -11030,11 +10709,10 @@
         <v>0.42096692323684692</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="11">IF(C323&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11049,11 +10727,10 @@
         <v>2.711717784404755E-2</v>
       </c>
       <c r="D324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E324">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11068,11 +10745,10 @@
         <v>1.961209625005722E-2</v>
       </c>
       <c r="D325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11087,11 +10763,10 @@
         <v>0.9603888988494873</v>
       </c>
       <c r="D326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E326">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11106,11 +10781,10 @@
         <v>1.4991071075201029E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11125,11 +10799,10 @@
         <v>1.4292812906205651E-2</v>
       </c>
       <c r="D328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E328">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11144,11 +10817,10 @@
         <v>1.4354824088513849E-2</v>
       </c>
       <c r="D329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11163,11 +10835,10 @@
         <v>2.0985908806324009E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11182,11 +10853,10 @@
         <v>1.469574030488729E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11201,11 +10871,10 @@
         <v>1.421190705150366E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11220,11 +10889,10 @@
         <v>0.94612324237823486</v>
       </c>
       <c r="D333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E333">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11239,11 +10907,10 @@
         <v>3.0026227235794071E-2</v>
       </c>
       <c r="D334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E334">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11258,11 +10925,10 @@
         <v>0.9905969500541687</v>
       </c>
       <c r="D335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E335">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11277,11 +10943,10 @@
         <v>2.021889574825764E-2</v>
       </c>
       <c r="D336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11296,11 +10961,10 @@
         <v>1.452580746263266E-2</v>
       </c>
       <c r="D337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11315,11 +10979,10 @@
         <v>1.4891323633491989E-2</v>
       </c>
       <c r="D338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E338">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11334,11 +10997,10 @@
         <v>0.99059981107711792</v>
       </c>
       <c r="D339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E339">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11353,11 +11015,10 @@
         <v>0.98954415321350098</v>
       </c>
       <c r="D340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E340">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11372,11 +11033,10 @@
         <v>1.4642215333878991E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11391,11 +11051,10 @@
         <v>1.714785024523735E-2</v>
       </c>
       <c r="D342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E342">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11410,11 +11069,10 @@
         <v>1.479897927492857E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11429,11 +11087,10 @@
         <v>2.8840856626629829E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11448,11 +11105,10 @@
         <v>1.446904521435499E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11467,11 +11123,10 @@
         <v>1.4421627856791019E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11486,11 +11141,10 @@
         <v>2.5561816990375519E-2</v>
       </c>
       <c r="D347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11505,11 +11159,10 @@
         <v>1.5852315351367E-2</v>
       </c>
       <c r="D348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E348">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11524,11 +11177,10 @@
         <v>0.97223871946334839</v>
       </c>
       <c r="D349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E349">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11543,11 +11195,10 @@
         <v>1.5448278747498991E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11562,11 +11213,10 @@
         <v>1.6039455309510231E-2</v>
       </c>
       <c r="D351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11581,11 +11231,10 @@
         <v>0.98365777730941772</v>
       </c>
       <c r="D352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E352">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11600,11 +11249,10 @@
         <v>1.441625319421291E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11619,11 +11267,10 @@
         <v>1.6142690554261211E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11638,11 +11285,10 @@
         <v>6.5344132483005524E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11657,11 +11303,10 @@
         <v>1.4544563367962841E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11676,11 +11321,10 @@
         <v>1.4347546733915809E-2</v>
       </c>
       <c r="D357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E357">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11695,11 +11339,10 @@
         <v>1.431630458682775E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11714,11 +11357,10 @@
         <v>0.77767086029052734</v>
       </c>
       <c r="D359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E359">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11733,11 +11375,10 @@
         <v>1.6734091565012928E-2</v>
       </c>
       <c r="D360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E360">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11752,11 +11393,10 @@
         <v>0.98421281576156616</v>
       </c>
       <c r="D361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E361">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11771,11 +11411,10 @@
         <v>0.41043618321418762</v>
       </c>
       <c r="D362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11790,11 +11429,10 @@
         <v>1.444514375180006E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11809,11 +11447,10 @@
         <v>1.471845898777246E-2</v>
       </c>
       <c r="D364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11828,11 +11465,10 @@
         <v>2.4827266111969951E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11847,11 +11483,10 @@
         <v>1.421459205448627E-2</v>
       </c>
       <c r="D366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E366">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11866,11 +11501,10 @@
         <v>1.417201291769743E-2</v>
       </c>
       <c r="D367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11885,11 +11519,10 @@
         <v>1.41895916312933E-2</v>
       </c>
       <c r="D368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11904,11 +11537,10 @@
         <v>1.6766306012868881E-2</v>
       </c>
       <c r="D369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E369">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11923,11 +11555,10 @@
         <v>2.6974901556968689E-2</v>
       </c>
       <c r="D370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11942,11 +11573,10 @@
         <v>2.3475656285882E-2</v>
       </c>
       <c r="D371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E371">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11961,11 +11591,10 @@
         <v>1.41911655664444E-2</v>
       </c>
       <c r="D372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E372">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11980,11 +11609,10 @@
         <v>1.4165333472192289E-2</v>
       </c>
       <c r="D373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E373">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11999,11 +11627,10 @@
         <v>1.4823151752352709E-2</v>
       </c>
       <c r="D374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E374">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12018,11 +11645,10 @@
         <v>1.425096672028303E-2</v>
       </c>
       <c r="D375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E375">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12037,11 +11663,10 @@
         <v>1.4172392897307869E-2</v>
       </c>
       <c r="D376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E376">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12056,11 +11681,10 @@
         <v>1.4189278706908229E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12075,11 +11699,10 @@
         <v>1.458828151226044E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12094,11 +11717,10 @@
         <v>1.419895328581333E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12113,11 +11735,10 @@
         <v>1.468424219638109E-2</v>
       </c>
       <c r="D380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E380">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12132,11 +11753,10 @@
         <v>1.4324124902486799E-2</v>
       </c>
       <c r="D381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12151,11 +11771,10 @@
         <v>3.1933307647705078E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12170,11 +11789,10 @@
         <v>0.90534263849258423</v>
       </c>
       <c r="D383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E383">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -12189,11 +11807,10 @@
         <v>2.1704288199543949E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12208,11 +11825,10 @@
         <v>1.4220901764929289E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12227,11 +11843,10 @@
         <v>0.99061954021453857</v>
       </c>
       <c r="D386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E449" si="12">IF(ISBLANK(F386),D386,F386)</f>
         <v>1</v>
       </c>
     </row>
@@ -12246,11 +11861,10 @@
         <v>0.94874179363250732</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="13">IF(C387&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E387">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12265,11 +11879,10 @@
         <v>1.429177820682526E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12284,11 +11897,10 @@
         <v>0.87360060214996338</v>
       </c>
       <c r="D389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E389">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12303,11 +11915,10 @@
         <v>1.566088572144508E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12322,11 +11933,10 @@
         <v>0.98933547735214233</v>
       </c>
       <c r="D391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E391">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12341,11 +11951,10 @@
         <v>2.2926449775695801E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12360,11 +11969,10 @@
         <v>2.4674441665410999E-2</v>
       </c>
       <c r="D393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12379,11 +11987,10 @@
         <v>2.2733768448233601E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12398,11 +12005,10 @@
         <v>2.0591570064425468E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12417,11 +12023,10 @@
         <v>1.4293155632913109E-2</v>
       </c>
       <c r="D396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E396">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12436,11 +12041,10 @@
         <v>1.4923065900802611E-2</v>
       </c>
       <c r="D397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E397">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12455,11 +12059,10 @@
         <v>1.459738612174988E-2</v>
       </c>
       <c r="D398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E398">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12474,11 +12077,10 @@
         <v>1.418603677302599E-2</v>
       </c>
       <c r="D399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E399">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12493,11 +12095,10 @@
         <v>1.4379888772964479E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12512,11 +12113,10 @@
         <v>1.5430666506290439E-2</v>
       </c>
       <c r="D401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E401">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12531,11 +12131,10 @@
         <v>0.99037444591522217</v>
       </c>
       <c r="D402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E402">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12550,11 +12149,10 @@
         <v>1.4316001906991E-2</v>
       </c>
       <c r="D403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E403">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12569,11 +12167,10 @@
         <v>1.426011323928833E-2</v>
       </c>
       <c r="D404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12588,11 +12185,10 @@
         <v>0.33109503984451288</v>
       </c>
       <c r="D405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E405">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12607,11 +12203,10 @@
         <v>1.448654383420944E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12626,11 +12221,10 @@
         <v>1.4337252825498579E-2</v>
       </c>
       <c r="D407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E407">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12645,11 +12239,10 @@
         <v>1.5248464420437809E-2</v>
       </c>
       <c r="D408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E408">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12664,11 +12257,10 @@
         <v>0.99030125141143799</v>
       </c>
       <c r="D409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E409">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12683,11 +12275,10 @@
         <v>0.99060893058776855</v>
       </c>
       <c r="D410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E410">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12702,11 +12293,10 @@
         <v>0.89330726861953735</v>
       </c>
       <c r="D411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E411">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F411">
@@ -12724,11 +12314,10 @@
         <v>1.4250632375478739E-2</v>
       </c>
       <c r="D412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12743,11 +12332,10 @@
         <v>1.4254818670451639E-2</v>
       </c>
       <c r="D413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12762,11 +12350,10 @@
         <v>1.7339911311864849E-2</v>
       </c>
       <c r="D414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E414">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12781,11 +12368,10 @@
         <v>1.5448168851435179E-2</v>
       </c>
       <c r="D415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E415">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12800,11 +12386,10 @@
         <v>1.4372828416526319E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12819,11 +12404,10 @@
         <v>0.99058741331100464</v>
       </c>
       <c r="D417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E417">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F417">
@@ -12841,11 +12425,10 @@
         <v>3.3931825309991837E-2</v>
       </c>
       <c r="D418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E418">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12860,11 +12443,10 @@
         <v>2.2644428536295891E-2</v>
       </c>
       <c r="D419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E419">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12879,11 +12461,10 @@
         <v>1.4376510865986351E-2</v>
       </c>
       <c r="D420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12898,11 +12479,10 @@
         <v>1.4547873288393021E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12917,11 +12497,10 @@
         <v>1.4499232172966E-2</v>
       </c>
       <c r="D422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12936,11 +12515,10 @@
         <v>1.6706943511962891E-2</v>
       </c>
       <c r="D423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E423">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12955,11 +12533,10 @@
         <v>1.47724375128746E-2</v>
       </c>
       <c r="D424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E424">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12974,11 +12551,10 @@
         <v>1.4854505658149719E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12993,11 +12569,10 @@
         <v>0.77362072467803955</v>
       </c>
       <c r="D426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E426">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F426">
@@ -13015,11 +12590,10 @@
         <v>0.98957806825637817</v>
       </c>
       <c r="D427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E427">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F427">
@@ -13037,11 +12611,10 @@
         <v>3.558976948261261E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13056,11 +12629,10 @@
         <v>1.7530495300889019E-2</v>
       </c>
       <c r="D429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13075,11 +12647,10 @@
         <v>0.83052563667297363</v>
       </c>
       <c r="D430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E430">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F430">
@@ -13097,11 +12668,10 @@
         <v>1.4411206357181071E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13116,11 +12686,10 @@
         <v>1.418961212038994E-2</v>
       </c>
       <c r="D432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E432">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13135,11 +12704,10 @@
         <v>0.99006944894790649</v>
       </c>
       <c r="D433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E433">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -13154,11 +12722,10 @@
         <v>0.98936057090759277</v>
       </c>
       <c r="D434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E434">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F434">
@@ -13176,11 +12743,10 @@
         <v>1.578553952276707E-2</v>
       </c>
       <c r="D435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E435">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13195,11 +12761,10 @@
         <v>0.99000680446624756</v>
       </c>
       <c r="D436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E436">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F436">
@@ -13217,11 +12782,10 @@
         <v>1.5025435946881769E-2</v>
       </c>
       <c r="D437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13236,11 +12800,10 @@
         <v>1.434469968080521E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13255,11 +12818,10 @@
         <v>1.4564225450158119E-2</v>
       </c>
       <c r="D439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E439">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13274,11 +12836,10 @@
         <v>1.49867907166481E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13293,11 +12854,10 @@
         <v>1.6107393428683281E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13312,11 +12872,10 @@
         <v>1.452486589550972E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13331,11 +12890,10 @@
         <v>1.432975474745035E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13350,11 +12908,10 @@
         <v>1.4546826481819149E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13369,11 +12926,10 @@
         <v>1.477865036576986E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13388,11 +12944,10 @@
         <v>1.456688810139894E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13407,11 +12962,10 @@
         <v>1.729702390730381E-2</v>
       </c>
       <c r="D447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13426,11 +12980,10 @@
         <v>0.39718189835548401</v>
       </c>
       <c r="D448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13445,11 +12998,10 @@
         <v>0.97035688161849976</v>
       </c>
       <c r="D449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E449">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F449">
@@ -13467,11 +13019,10 @@
         <v>3.1887192279100418E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" ref="E450:E513" si="14">IF(ISBLANK(F450),D450,F450)</f>
         <v>0</v>
       </c>
     </row>
@@ -13486,11 +13037,10 @@
         <v>1.4220507815480231E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="15">IF(C451&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13505,11 +13055,10 @@
         <v>0.1094678267836571</v>
       </c>
       <c r="D452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13524,11 +13073,10 @@
         <v>2.987822704017162E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13543,11 +13091,10 @@
         <v>1.7977217212319371E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13562,11 +13109,10 @@
         <v>1.42224719747901E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13581,11 +13127,10 @@
         <v>1.471601147204638E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13600,11 +13145,10 @@
         <v>2.190005220472813E-2</v>
       </c>
       <c r="D457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13619,11 +13163,10 @@
         <v>2.1093178540468219E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13638,11 +13181,10 @@
         <v>1.431617047637701E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13657,11 +13199,10 @@
         <v>1.5508575364947321E-2</v>
       </c>
       <c r="D460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E460">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13676,11 +13217,10 @@
         <v>4.5374426990747452E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13695,11 +13235,10 @@
         <v>0.99062269926071167</v>
       </c>
       <c r="D462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E462">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13714,11 +13253,10 @@
         <v>1.454650517553091E-2</v>
       </c>
       <c r="D463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E463">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13733,11 +13271,10 @@
         <v>1.905391551554203E-2</v>
       </c>
       <c r="D464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13752,11 +13289,10 @@
         <v>0.91682803630828857</v>
       </c>
       <c r="D465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E465">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13771,11 +13307,10 @@
         <v>1.5677152201533321E-2</v>
       </c>
       <c r="D466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E466">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13790,11 +13325,10 @@
         <v>0.99036496877670288</v>
       </c>
       <c r="D467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E467">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13809,11 +13343,10 @@
         <v>1.4275457710027689E-2</v>
       </c>
       <c r="D468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13828,11 +13361,10 @@
         <v>1.9499769434332851E-2</v>
       </c>
       <c r="D469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E469">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13847,11 +13379,10 @@
         <v>0.99061828851699829</v>
       </c>
       <c r="D470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E470">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13866,11 +13397,10 @@
         <v>7.0352829992771149E-2</v>
       </c>
       <c r="D471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13885,11 +13415,10 @@
         <v>1.4770181849598879E-2</v>
       </c>
       <c r="D472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E472">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13904,11 +13433,10 @@
         <v>7.2609394788742065E-2</v>
       </c>
       <c r="D473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13923,11 +13451,10 @@
         <v>1.474764849990606E-2</v>
       </c>
       <c r="D474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E474">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13942,11 +13469,10 @@
         <v>1.4410277828574181E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13961,11 +13487,10 @@
         <v>1.444179005920887E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13980,11 +13505,10 @@
         <v>1.4649957418441771E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13999,11 +13523,10 @@
         <v>1.503012236207724E-2</v>
       </c>
       <c r="D478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14018,11 +13541,10 @@
         <v>2.453555166721344E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14037,11 +13559,10 @@
         <v>2.1088201552629471E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14056,11 +13577,10 @@
         <v>1.431511342525482E-2</v>
       </c>
       <c r="D481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E481">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14075,11 +13595,10 @@
         <v>1.7284294590353969E-2</v>
       </c>
       <c r="D482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E482">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14094,11 +13613,10 @@
         <v>1.455878652632236E-2</v>
       </c>
       <c r="D483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E483">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14113,11 +13631,10 @@
         <v>1.6587801277637482E-2</v>
       </c>
       <c r="D484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14132,11 +13649,10 @@
         <v>2.9984939843416211E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14151,11 +13667,10 @@
         <v>1.432604435831308E-2</v>
       </c>
       <c r="D486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14170,11 +13685,10 @@
         <v>0.2897246778011322</v>
       </c>
       <c r="D487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14189,11 +13703,10 @@
         <v>6.1467714607715607E-2</v>
       </c>
       <c r="D488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14208,11 +13721,10 @@
         <v>0.6596875786781311</v>
       </c>
       <c r="D489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E489">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14227,11 +13739,10 @@
         <v>1.436284743249416E-2</v>
       </c>
       <c r="D490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14246,11 +13757,10 @@
         <v>1.4186844229698179E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14265,11 +13775,10 @@
         <v>1.435631606727839E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14284,11 +13793,10 @@
         <v>1.458711549639702E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14303,11 +13811,10 @@
         <v>1.559965312480927E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14322,11 +13829,10 @@
         <v>1.482511498034E-2</v>
       </c>
       <c r="D495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E495">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14341,11 +13847,10 @@
         <v>1.4240888878703121E-2</v>
       </c>
       <c r="D496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E496">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14360,11 +13865,10 @@
         <v>1.474807038903236E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14379,11 +13883,10 @@
         <v>0.9004136323928833</v>
       </c>
       <c r="D498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E498">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F498">
@@ -14401,11 +13904,10 @@
         <v>1.510109100490808E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14420,11 +13922,10 @@
         <v>1.48695008829236E-2</v>
       </c>
       <c r="D500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E500">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14439,11 +13940,10 @@
         <v>1.4199767261743551E-2</v>
       </c>
       <c r="D501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14458,11 +13958,10 @@
         <v>2.5209084153175351E-2</v>
       </c>
       <c r="D502">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E502">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14477,11 +13976,10 @@
         <v>1.5967639163136479E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14496,11 +13994,10 @@
         <v>2.6017755270004269E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14515,11 +14012,10 @@
         <v>1.4259255491197109E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14534,11 +14030,10 @@
         <v>1.4170108363032339E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14553,11 +14048,10 @@
         <v>1.8719915300607681E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14572,11 +14066,10 @@
         <v>1.416294276714325E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14591,11 +14084,10 @@
         <v>2.451200969517231E-2</v>
       </c>
       <c r="D509">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E509">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14610,11 +14102,10 @@
         <v>1.589184440672398E-2</v>
       </c>
       <c r="D510">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14629,11 +14120,10 @@
         <v>0.69103789329528809</v>
       </c>
       <c r="D511">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E511">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14648,11 +14138,10 @@
         <v>1.5470625832676889E-2</v>
       </c>
       <c r="D512">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14667,11 +14156,10 @@
         <v>6.8834751844406128E-2</v>
       </c>
       <c r="D513">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14686,11 +14174,10 @@
         <v>0.85510081052780151</v>
       </c>
       <c r="D514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E577" si="16">IF(ISBLANK(F514),D514,F514)</f>
         <v>1</v>
       </c>
     </row>
@@ -14705,11 +14192,10 @@
         <v>1.544031128287315E-2</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" si="17">IF(C515&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D515:D578" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E515">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14724,11 +14210,10 @@
         <v>0.77418935298919678</v>
       </c>
       <c r="D516">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E516">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F516">
@@ -14746,11 +14231,10 @@
         <v>1.565971598029137E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14765,11 +14249,10 @@
         <v>1.546416990458965E-2</v>
       </c>
       <c r="D518">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E518">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14784,11 +14267,10 @@
         <v>0.29184356331825262</v>
       </c>
       <c r="D519">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14803,11 +14285,10 @@
         <v>0.90378129482269287</v>
       </c>
       <c r="D520">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E520">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F520">
@@ -14825,11 +14306,10 @@
         <v>0.89670008420944214</v>
       </c>
       <c r="D521">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E521">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F521">
@@ -14847,11 +14327,10 @@
         <v>2.9145495966076851E-2</v>
       </c>
       <c r="D522">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14866,11 +14345,10 @@
         <v>2.2413782775402069E-2</v>
       </c>
       <c r="D523">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E523">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14885,11 +14363,10 @@
         <v>0.99063193798065186</v>
       </c>
       <c r="D524">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E524">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14904,11 +14381,10 @@
         <v>1.418981142342091E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14923,11 +14399,10 @@
         <v>1.739250123500824E-2</v>
       </c>
       <c r="D526">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E526">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14942,11 +14417,10 @@
         <v>1.6225248575210571E-2</v>
       </c>
       <c r="D527">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14961,11 +14435,10 @@
         <v>1.4426602050662041E-2</v>
       </c>
       <c r="D528">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14980,11 +14453,10 @@
         <v>1.429670304059982E-2</v>
       </c>
       <c r="D529">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14999,11 +14471,10 @@
         <v>1.5069909393787381E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15018,11 +14489,10 @@
         <v>0.20698204636573789</v>
       </c>
       <c r="D531">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E531">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15037,11 +14507,10 @@
         <v>1.425502635538578E-2</v>
       </c>
       <c r="D532">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E532">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15056,11 +14525,10 @@
         <v>0.93078505992889404</v>
       </c>
       <c r="D533">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E533">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15075,11 +14543,10 @@
         <v>1.896257326006889E-2</v>
       </c>
       <c r="D534">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E534">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15094,11 +14561,10 @@
         <v>1.4574515633285051E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15113,11 +14579,10 @@
         <v>1.5966655686497688E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15132,11 +14597,10 @@
         <v>1.471658516675234E-2</v>
       </c>
       <c r="D537">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E537">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15151,11 +14615,10 @@
         <v>1.5110312029719349E-2</v>
       </c>
       <c r="D538">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E538">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15170,11 +14633,10 @@
         <v>1.438339054584503E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15189,11 +14651,10 @@
         <v>0.99056881666183472</v>
       </c>
       <c r="D540">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E540">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15208,11 +14669,10 @@
         <v>0.99047648906707764</v>
       </c>
       <c r="D541">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E541">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15227,11 +14687,10 @@
         <v>4.3695107102394097E-2</v>
       </c>
       <c r="D542">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15246,11 +14705,10 @@
         <v>1.41685763373971E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15265,11 +14723,10 @@
         <v>1.4392389915883539E-2</v>
       </c>
       <c r="D544">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15284,11 +14741,10 @@
         <v>1.6659446060657501E-2</v>
       </c>
       <c r="D545">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15303,11 +14759,10 @@
         <v>1.433074474334717E-2</v>
       </c>
       <c r="D546">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E546">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15322,11 +14777,10 @@
         <v>1.4615629799664021E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15341,11 +14795,10 @@
         <v>1.4227299951016899E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15360,11 +14813,10 @@
         <v>1.6990389674901959E-2</v>
       </c>
       <c r="D549">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E549">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15379,11 +14831,10 @@
         <v>0.16515761613845831</v>
       </c>
       <c r="D550">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15398,11 +14849,10 @@
         <v>0.89969116449356079</v>
       </c>
       <c r="D551">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E551">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15417,11 +14867,10 @@
         <v>1.4580433256924151E-2</v>
       </c>
       <c r="D552">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15436,11 +14885,10 @@
         <v>0.1444737911224365</v>
       </c>
       <c r="D553">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E553">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15455,11 +14903,10 @@
         <v>2.3530276492238041E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15474,11 +14921,10 @@
         <v>1.494500692933798E-2</v>
       </c>
       <c r="D555">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E555">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15493,11 +14939,10 @@
         <v>1.5315110795199869E-2</v>
       </c>
       <c r="D556">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E556">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15512,11 +14957,10 @@
         <v>0.87248790264129639</v>
       </c>
       <c r="D557">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E557">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15531,11 +14975,10 @@
         <v>1.433516480028629E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15550,11 +14993,10 @@
         <v>1.5182409435510641E-2</v>
       </c>
       <c r="D559">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E559">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15569,11 +15011,10 @@
         <v>1.4627053402364251E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15588,11 +15029,10 @@
         <v>1.6781138256192211E-2</v>
       </c>
       <c r="D561">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E561">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15607,11 +15047,10 @@
         <v>1.9757997244596481E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15626,11 +15065,10 @@
         <v>1.4359851367771631E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15645,11 +15083,10 @@
         <v>0.85993558168411255</v>
       </c>
       <c r="D564">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E564">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F564">
@@ -15667,11 +15104,10 @@
         <v>1.5943290665745739E-2</v>
       </c>
       <c r="D565">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E565">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15686,11 +15122,10 @@
         <v>1.7275087535381321E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15705,11 +15140,10 @@
         <v>1.4789728447794911E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15724,11 +15158,10 @@
         <v>1.4442164450883871E-2</v>
       </c>
       <c r="D568">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E568">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15743,11 +15176,10 @@
         <v>1.860341988503933E-2</v>
       </c>
       <c r="D569">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E569">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15762,11 +15194,10 @@
         <v>1.420782599598169E-2</v>
       </c>
       <c r="D570">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E570">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15781,11 +15212,10 @@
         <v>1.4582709409296509E-2</v>
       </c>
       <c r="D571">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E571">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15800,11 +15230,10 @@
         <v>1.465804129838943E-2</v>
       </c>
       <c r="D572">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E572">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15819,11 +15248,10 @@
         <v>1.4371815137565139E-2</v>
       </c>
       <c r="D573">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E573">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15838,11 +15266,10 @@
         <v>1.4795586466789251E-2</v>
       </c>
       <c r="D574">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15857,11 +15284,10 @@
         <v>2.0820494741201401E-2</v>
       </c>
       <c r="D575">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15876,11 +15302,10 @@
         <v>1.4272960834205151E-2</v>
       </c>
       <c r="D576">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E576">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15895,11 +15320,10 @@
         <v>1.49454427883029E-2</v>
       </c>
       <c r="D577">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E577">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15914,11 +15338,10 @@
         <v>1.4439869672060009E-2</v>
       </c>
       <c r="D578">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E578">
-        <f t="shared" ref="E578:E641" si="18">IF(ISBLANK(F578),D578,F578)</f>
         <v>0</v>
       </c>
     </row>
@@ -15933,11 +15356,10 @@
         <v>1.69633012264967E-2</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D642" si="19">IF(C579&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D579:D642" si="9">IF(C579&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E579">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15952,11 +15374,10 @@
         <v>1.4935323968529699E-2</v>
       </c>
       <c r="D580">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E580">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15971,11 +15392,10 @@
         <v>0.18833175301551819</v>
       </c>
       <c r="D581">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E581">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15990,11 +15410,10 @@
         <v>8.2055516541004181E-2</v>
       </c>
       <c r="D582">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E582">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16009,11 +15428,10 @@
         <v>1.4186223968863491E-2</v>
       </c>
       <c r="D583">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E583">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16028,11 +15446,10 @@
         <v>1.4155168086290359E-2</v>
       </c>
       <c r="D584">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E584">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16047,11 +15464,10 @@
         <v>1.5044755302369589E-2</v>
       </c>
       <c r="D585">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E585">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16066,11 +15482,10 @@
         <v>1.462443545460701E-2</v>
       </c>
       <c r="D586">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E586">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16085,11 +15500,10 @@
         <v>1.4227781444787981E-2</v>
       </c>
       <c r="D587">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E587">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16104,11 +15518,10 @@
         <v>4.4186756014823907E-2</v>
       </c>
       <c r="D588">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E588">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16123,11 +15536,10 @@
         <v>1.5544267371296879E-2</v>
       </c>
       <c r="D589">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E589">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16142,11 +15554,10 @@
         <v>1.4409235678613189E-2</v>
       </c>
       <c r="D590">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E590">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16161,11 +15572,10 @@
         <v>1.464317832142115E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16180,11 +15590,10 @@
         <v>1.433938182890415E-2</v>
       </c>
       <c r="D592">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E592">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16199,11 +15608,10 @@
         <v>1.4277881011366841E-2</v>
       </c>
       <c r="D593">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E593">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16218,11 +15626,10 @@
         <v>1.445364486426115E-2</v>
       </c>
       <c r="D594">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E594">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16237,11 +15644,10 @@
         <v>1.418769080191851E-2</v>
       </c>
       <c r="D595">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E595">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16256,11 +15662,10 @@
         <v>1.439248491078615E-2</v>
       </c>
       <c r="D596">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E596">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16275,11 +15680,10 @@
         <v>1.4235119335353369E-2</v>
       </c>
       <c r="D597">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E597">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16294,11 +15698,10 @@
         <v>1.4520779252052311E-2</v>
       </c>
       <c r="D598">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E598">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16313,11 +15716,10 @@
         <v>1.4240775257349011E-2</v>
       </c>
       <c r="D599">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E599">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16332,11 +15734,10 @@
         <v>1.435986440628767E-2</v>
       </c>
       <c r="D600">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E600">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16351,11 +15752,10 @@
         <v>1.430572383105755E-2</v>
       </c>
       <c r="D601">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16370,11 +15770,10 @@
         <v>1.438718941062689E-2</v>
       </c>
       <c r="D602">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16389,11 +15788,10 @@
         <v>0.99060249328613281</v>
       </c>
       <c r="D603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E603">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16408,11 +15806,10 @@
         <v>2.0424347370862961E-2</v>
       </c>
       <c r="D604">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E604">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16427,11 +15824,10 @@
         <v>0.98638910055160522</v>
       </c>
       <c r="D605">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E605">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F605">
@@ -16449,11 +15845,10 @@
         <v>1.535789854824543E-2</v>
       </c>
       <c r="D606">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16468,11 +15863,10 @@
         <v>1.7675939947366711E-2</v>
       </c>
       <c r="D607">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E607">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16487,11 +15881,10 @@
         <v>1.602103374898434E-2</v>
       </c>
       <c r="D608">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E608">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16506,11 +15899,10 @@
         <v>0.99056762456893921</v>
       </c>
       <c r="D609">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E609">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16525,11 +15917,10 @@
         <v>0.33111760020256042</v>
       </c>
       <c r="D610">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E610">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16544,11 +15935,10 @@
         <v>1.51950903236866E-2</v>
       </c>
       <c r="D611">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E611">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16563,11 +15953,10 @@
         <v>1.436387374997139E-2</v>
       </c>
       <c r="D612">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E612">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16582,11 +15971,10 @@
         <v>1.448338478803635E-2</v>
       </c>
       <c r="D613">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E613">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16601,11 +15989,10 @@
         <v>1.999198459088802E-2</v>
       </c>
       <c r="D614">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E614">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16620,11 +16007,10 @@
         <v>3.0687423422932621E-2</v>
       </c>
       <c r="D615">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E615">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16639,11 +16025,10 @@
         <v>3.004688024520874E-2</v>
       </c>
       <c r="D616">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E616">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16658,11 +16043,10 @@
         <v>1.4919476583600041E-2</v>
       </c>
       <c r="D617">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E617">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16677,11 +16061,10 @@
         <v>2.3762926459312439E-2</v>
       </c>
       <c r="D618">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E618">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16696,11 +16079,10 @@
         <v>1.438392419368029E-2</v>
       </c>
       <c r="D619">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E619">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16715,11 +16097,10 @@
         <v>1.5745028853416439E-2</v>
       </c>
       <c r="D620">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E620">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16734,11 +16115,10 @@
         <v>1.764905080199242E-2</v>
       </c>
       <c r="D621">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E621">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16753,11 +16133,10 @@
         <v>1.5001446008682249E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16772,11 +16151,10 @@
         <v>1.7493601888418201E-2</v>
       </c>
       <c r="D623">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E623">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16791,11 +16169,10 @@
         <v>1.613828539848328E-2</v>
       </c>
       <c r="D624">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E624">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16810,11 +16187,10 @@
         <v>1.4497495256364351E-2</v>
       </c>
       <c r="D625">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E625">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16829,11 +16205,10 @@
         <v>0.98158663511276245</v>
       </c>
       <c r="D626">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E626">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16848,11 +16223,10 @@
         <v>1.487299520522356E-2</v>
       </c>
       <c r="D627">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E627">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16867,11 +16241,10 @@
         <v>1.4936326071619989E-2</v>
       </c>
       <c r="D628">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E628">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16886,11 +16259,10 @@
         <v>1.483013760298491E-2</v>
       </c>
       <c r="D629">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E629">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16905,11 +16277,10 @@
         <v>1.9955530762672421E-2</v>
       </c>
       <c r="D630">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E630">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16924,11 +16295,10 @@
         <v>1.4549649320542811E-2</v>
       </c>
       <c r="D631">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E631">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16943,11 +16313,10 @@
         <v>0.98884683847427368</v>
       </c>
       <c r="D632">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E632">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16962,11 +16331,10 @@
         <v>1.424120459705591E-2</v>
       </c>
       <c r="D633">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E633">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16981,11 +16349,10 @@
         <v>1.47627042606473E-2</v>
       </c>
       <c r="D634">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E634">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17000,11 +16367,10 @@
         <v>0.99056655168533325</v>
       </c>
       <c r="D635">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E635">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -17019,11 +16385,10 @@
         <v>1.4516774564981461E-2</v>
       </c>
       <c r="D636">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E636">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17038,11 +16403,10 @@
         <v>1.4305387623608111E-2</v>
       </c>
       <c r="D637">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E637">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17057,11 +16421,10 @@
         <v>1.468176487833261E-2</v>
       </c>
       <c r="D638">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E638">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17076,11 +16439,10 @@
         <v>3.4043554216623313E-2</v>
       </c>
       <c r="D639">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E639">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17095,11 +16457,10 @@
         <v>1.537415944039822E-2</v>
       </c>
       <c r="D640">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E640">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17114,11 +16475,10 @@
         <v>1.541150733828545E-2</v>
       </c>
       <c r="D641">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E641">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17133,11 +16493,10 @@
         <v>0.7902790904045105</v>
       </c>
       <c r="D642">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E642">
-        <f t="shared" ref="E642:E705" si="20">IF(ISBLANK(F642),D642,F642)</f>
         <v>0</v>
       </c>
       <c r="F642">
@@ -17155,11 +16514,10 @@
         <v>0.82867449522018433</v>
       </c>
       <c r="D643">
-        <f t="shared" ref="D643:D706" si="21">IF(C643&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D643:D706" si="10">IF(C643&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E643">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F643">
@@ -17177,11 +16535,10 @@
         <v>2.8101826086640361E-2</v>
       </c>
       <c r="D644">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E644">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17196,11 +16553,10 @@
         <v>1.4568887650966641E-2</v>
       </c>
       <c r="D645">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E645">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17215,11 +16571,10 @@
         <v>1.4429762959480291E-2</v>
       </c>
       <c r="D646">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E646">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17234,11 +16589,10 @@
         <v>3.978554904460907E-2</v>
       </c>
       <c r="D647">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E647">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17253,11 +16607,10 @@
         <v>1.4760631136596199E-2</v>
       </c>
       <c r="D648">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E648">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17272,11 +16625,10 @@
         <v>1.5235402621328831E-2</v>
       </c>
       <c r="D649">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E649">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17291,11 +16643,10 @@
         <v>1.482792105525732E-2</v>
       </c>
       <c r="D650">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E650">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17310,11 +16661,10 @@
         <v>1.531626842916012E-2</v>
       </c>
       <c r="D651">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E651">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17329,11 +16679,10 @@
         <v>1.423693913966417E-2</v>
       </c>
       <c r="D652">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E652">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17348,11 +16697,10 @@
         <v>1.4467780478298661E-2</v>
       </c>
       <c r="D653">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E653">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17367,11 +16715,10 @@
         <v>1.7324082553386692E-2</v>
       </c>
       <c r="D654">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E654">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17386,11 +16733,10 @@
         <v>1.4207024127244949E-2</v>
       </c>
       <c r="D655">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E655">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17405,11 +16751,10 @@
         <v>1.4365325681865221E-2</v>
       </c>
       <c r="D656">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E656">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17424,11 +16769,10 @@
         <v>1.454631332308054E-2</v>
       </c>
       <c r="D657">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E657">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17443,11 +16787,10 @@
         <v>1.4436986297369E-2</v>
       </c>
       <c r="D658">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E658">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17462,11 +16805,10 @@
         <v>2.3074759170413021E-2</v>
       </c>
       <c r="D659">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E659">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17481,11 +16823,10 @@
         <v>1.4915945008397101E-2</v>
       </c>
       <c r="D660">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E660">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17500,11 +16841,10 @@
         <v>9.636399894952774E-2</v>
       </c>
       <c r="D661">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E661">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17519,11 +16859,10 @@
         <v>1.43721392378211E-2</v>
       </c>
       <c r="D662">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E662">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17538,11 +16877,10 @@
         <v>2.8292512521147731E-2</v>
       </c>
       <c r="D663">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E663">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17557,11 +16895,10 @@
         <v>1.438908278942108E-2</v>
       </c>
       <c r="D664">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E664">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17576,11 +16913,10 @@
         <v>1.4544926583766941E-2</v>
       </c>
       <c r="D665">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E665">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17595,11 +16931,10 @@
         <v>1.454631984233856E-2</v>
       </c>
       <c r="D666">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E666">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17614,11 +16949,10 @@
         <v>1.4347365126013759E-2</v>
       </c>
       <c r="D667">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E667">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17633,11 +16967,10 @@
         <v>1.4444649219512939E-2</v>
       </c>
       <c r="D668">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E668">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17652,11 +16985,10 @@
         <v>1.438354514539242E-2</v>
       </c>
       <c r="D669">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E669">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17671,11 +17003,10 @@
         <v>1.512942835688591E-2</v>
       </c>
       <c r="D670">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E670">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17690,11 +17021,10 @@
         <v>1.830657571554184E-2</v>
       </c>
       <c r="D671">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E671">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17709,11 +17039,10 @@
         <v>1.830657571554184E-2</v>
       </c>
       <c r="D672">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E672">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17728,11 +17057,10 @@
         <v>1.429855078458786E-2</v>
       </c>
       <c r="D673">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E673">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17747,11 +17075,10 @@
         <v>1.4498680830001829E-2</v>
       </c>
       <c r="D674">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E674">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17766,11 +17093,10 @@
         <v>2.8742264956235889E-2</v>
       </c>
       <c r="D675">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E675">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17785,11 +17111,10 @@
         <v>0.76754271984100342</v>
       </c>
       <c r="D676">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E676">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F676">
@@ -17807,11 +17132,10 @@
         <v>0.82488918304443359</v>
       </c>
       <c r="D677">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E677">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17826,11 +17150,10 @@
         <v>1.4483426697552201E-2</v>
       </c>
       <c r="D678">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E678">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17845,11 +17168,10 @@
         <v>0.97146105766296387</v>
       </c>
       <c r="D679">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E679">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F679">
@@ -17867,11 +17189,10 @@
         <v>1.469905488193035E-2</v>
       </c>
       <c r="D680">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E680">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17886,11 +17207,10 @@
         <v>2.8968703001737591E-2</v>
       </c>
       <c r="D681">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E681">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17905,11 +17225,10 @@
         <v>1.438985392451286E-2</v>
       </c>
       <c r="D682">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E682">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17924,11 +17243,10 @@
         <v>3.3474598079919822E-2</v>
       </c>
       <c r="D683">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E683">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17943,11 +17261,10 @@
         <v>1.544857025146484E-2</v>
       </c>
       <c r="D684">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E684">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17962,11 +17279,10 @@
         <v>1.512895151972771E-2</v>
       </c>
       <c r="D685">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E685">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17981,11 +17297,10 @@
         <v>1.4971784316003321E-2</v>
       </c>
       <c r="D686">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E686">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18000,11 +17315,10 @@
         <v>1.5883387997746471E-2</v>
       </c>
       <c r="D687">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E687">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18019,11 +17333,10 @@
         <v>1.4283136464655399E-2</v>
       </c>
       <c r="D688">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E688">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18038,11 +17351,10 @@
         <v>1.5818517655134201E-2</v>
       </c>
       <c r="D689">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E689">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18057,11 +17369,10 @@
         <v>6.8744644522666931E-2</v>
       </c>
       <c r="D690">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E690">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18076,11 +17387,10 @@
         <v>1.49728674441576E-2</v>
       </c>
       <c r="D691">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E691">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18095,11 +17405,10 @@
         <v>1.4487552456557751E-2</v>
       </c>
       <c r="D692">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E692">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18114,11 +17423,10 @@
         <v>1.4199860394001011E-2</v>
       </c>
       <c r="D693">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E693">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18133,11 +17441,10 @@
         <v>2.3175159469246861E-2</v>
       </c>
       <c r="D694">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E694">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18152,11 +17459,10 @@
         <v>1.4562618918716909E-2</v>
       </c>
       <c r="D695">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E695">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18171,11 +17477,10 @@
         <v>5.1982622593641281E-2</v>
       </c>
       <c r="D696">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E696">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18190,11 +17495,10 @@
         <v>1.989666931331158E-2</v>
       </c>
       <c r="D697">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E697">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18209,11 +17513,10 @@
         <v>2.7586294338107109E-2</v>
       </c>
       <c r="D698">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E698">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18228,11 +17531,10 @@
         <v>1.4789361506700519E-2</v>
       </c>
       <c r="D699">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E699">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18247,11 +17549,10 @@
         <v>1.4680027030408381E-2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E700">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18266,11 +17567,10 @@
         <v>2.5090498849749569E-2</v>
       </c>
       <c r="D701">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E701">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18285,11 +17585,10 @@
         <v>0.99060666561126709</v>
       </c>
       <c r="D702">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E702">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -18304,11 +17603,10 @@
         <v>1.425640005618334E-2</v>
       </c>
       <c r="D703">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E703">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18323,11 +17621,10 @@
         <v>1.516943983733654E-2</v>
       </c>
       <c r="D704">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E704">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18342,11 +17639,10 @@
         <v>4.2583204805850983E-2</v>
       </c>
       <c r="D705">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E705">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18361,11 +17657,10 @@
         <v>1.472330652177334E-2</v>
       </c>
       <c r="D706">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E706">
-        <f t="shared" ref="E706:E746" si="22">IF(ISBLANK(F706),D706,F706)</f>
         <v>0</v>
       </c>
     </row>
@@ -18380,11 +17675,10 @@
         <v>1.4396104961633681E-2</v>
       </c>
       <c r="D707">
-        <f t="shared" ref="D707:D746" si="23">IF(C707&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D707:D746" si="11">IF(C707&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E707">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18399,11 +17693,10 @@
         <v>1.425124146044254E-2</v>
       </c>
       <c r="D708">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E708">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18418,11 +17711,10 @@
         <v>0.99033772945404053</v>
       </c>
       <c r="D709">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E709">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18437,11 +17729,10 @@
         <v>1.4790624380111691E-2</v>
       </c>
       <c r="D710">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E710">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18456,11 +17747,10 @@
         <v>1.485761720687151E-2</v>
       </c>
       <c r="D711">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E711">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18475,11 +17765,10 @@
         <v>1.456406898796558E-2</v>
       </c>
       <c r="D712">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E712">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18494,11 +17783,10 @@
         <v>1.4450697228312491E-2</v>
       </c>
       <c r="D713">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E713">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18513,11 +17801,10 @@
         <v>1.4305924996733671E-2</v>
       </c>
       <c r="D714">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E714">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18532,11 +17819,10 @@
         <v>1.4294270426034931E-2</v>
       </c>
       <c r="D715">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E715">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18551,11 +17837,10 @@
         <v>1.4261427335441111E-2</v>
       </c>
       <c r="D716">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E716">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18570,11 +17855,10 @@
         <v>2.8204416856169701E-2</v>
       </c>
       <c r="D717">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E717">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18589,11 +17873,10 @@
         <v>1.606125570833683E-2</v>
       </c>
       <c r="D718">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E718">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18608,11 +17891,10 @@
         <v>9.3962974846363068E-2</v>
       </c>
       <c r="D719">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E719">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18627,11 +17909,10 @@
         <v>1.467284839600325E-2</v>
       </c>
       <c r="D720">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E720">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18646,11 +17927,10 @@
         <v>1.4222687110304831E-2</v>
       </c>
       <c r="D721">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E721">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18665,11 +17945,10 @@
         <v>1.945654675364494E-2</v>
       </c>
       <c r="D722">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E722">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18684,11 +17963,10 @@
         <v>1.4498366042971609E-2</v>
       </c>
       <c r="D723">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E723">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18703,11 +17981,10 @@
         <v>1.4206923544406889E-2</v>
       </c>
       <c r="D724">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E724">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18722,11 +17999,10 @@
         <v>1.427486725151539E-2</v>
       </c>
       <c r="D725">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E725">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18741,11 +18017,10 @@
         <v>0.33101138472557068</v>
       </c>
       <c r="D726">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E726">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18760,11 +18035,10 @@
         <v>0.99026137590408325</v>
       </c>
       <c r="D727">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E727">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18779,11 +18053,10 @@
         <v>1.4627053402364251E-2</v>
       </c>
       <c r="D728">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E728">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18798,11 +18071,10 @@
         <v>1.43881905823946E-2</v>
       </c>
       <c r="D729">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E729">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18817,11 +18089,10 @@
         <v>1.482184231281281E-2</v>
       </c>
       <c r="D730">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E730">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18836,11 +18107,10 @@
         <v>1.4488620683550829E-2</v>
       </c>
       <c r="D731">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E731">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18855,11 +18125,10 @@
         <v>1.4876914210617541E-2</v>
       </c>
       <c r="D732">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E732">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18874,11 +18143,10 @@
         <v>1.4787589199841021E-2</v>
       </c>
       <c r="D733">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E733">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18893,11 +18161,10 @@
         <v>1.483801752328873E-2</v>
       </c>
       <c r="D734">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E734">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18912,11 +18179,10 @@
         <v>1.441882085055113E-2</v>
       </c>
       <c r="D735">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E735">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18931,11 +18197,10 @@
         <v>1.550109218806028E-2</v>
       </c>
       <c r="D736">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E736">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18950,11 +18215,10 @@
         <v>1.4917998574674129E-2</v>
       </c>
       <c r="D737">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E737">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18969,11 +18233,10 @@
         <v>1.419196557253599E-2</v>
       </c>
       <c r="D738">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E738">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18988,11 +18251,10 @@
         <v>1.8411386758089069E-2</v>
       </c>
       <c r="D739">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E739">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19007,11 +18269,10 @@
         <v>1.4329417608678339E-2</v>
       </c>
       <c r="D740">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E740">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19026,11 +18287,10 @@
         <v>0.94175773859024048</v>
       </c>
       <c r="D741">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E741">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -19045,11 +18305,10 @@
         <v>2.853689156472683E-2</v>
       </c>
       <c r="D742">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E742">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19064,11 +18323,10 @@
         <v>1.430823188275099E-2</v>
       </c>
       <c r="D743">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E743">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19083,11 +18341,10 @@
         <v>1.4175271615386009E-2</v>
       </c>
       <c r="D744">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E744">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19102,11 +18359,10 @@
         <v>1.506388932466507E-2</v>
       </c>
       <c r="D745">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E745">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19121,11 +18377,10 @@
         <v>1.436889078468084E-2</v>
       </c>
       <c r="D746">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E746">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
